--- a/biology/Médecine/Roger_Ermiane/Roger_Ermiane.xlsx
+++ b/biology/Médecine/Roger_Ermiane/Roger_Ermiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Ermiane ou René Ermiane, né le 24 juillet 1900 à Paris (5e) et décédé le 23 juin 1989, de son vrai nom René Bardonnaut, est un médecin généraliste parisien dans les années 1933 à 1978[1]. Il est l'inventeur de la prosopologie[2]. Il s'agit de l'étude de la correspondance entre les muscles et regards du visage de l'individu, et leurs significations psychologiques[3]. Il a d'abord procédé par introspection, déterminant quel trait de caractère s'éveillait en lui à la contraction de tel ou tel muscle, ainsi qu'à la direction des regards. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Ermiane ou René Ermiane, né le 24 juillet 1900 à Paris (5e) et décédé le 23 juin 1989, de son vrai nom René Bardonnaut, est un médecin généraliste parisien dans les années 1933 à 1978. Il est l'inventeur de la prosopologie. Il s'agit de l'étude de la correspondance entre les muscles et regards du visage de l'individu, et leurs significations psychologiques. Il a d'abord procédé par introspection, déterminant quel trait de caractère s'éveillait en lui à la contraction de tel ou tel muscle, ainsi qu'à la direction des regards. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jeux musculaires et expressions du visage, 1949
 Les visages du chef : de l'animateur au responsable, Les éditions sociales françaises, Paris, 1966.
